--- a/KMS.xlsx
+++ b/KMS.xlsx
@@ -5,19 +5,19 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\KMS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\KMS_PROJECT\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1857169D-C140-4E96-A408-3EE6E16C9E05}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D336160-A6E4-4460-BC20-F159B98057E6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="미설치목록" sheetId="1" r:id="rId1"/>
     <sheet name="환경설정테스트" sheetId="2" r:id="rId2"/>
-    <sheet name="최종" sheetId="5" r:id="rId3"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
-    <sheet name="Sheet4" sheetId="4" r:id="rId5"/>
+    <sheet name="도커연습" sheetId="3" r:id="rId3"/>
+    <sheet name="centos도커" sheetId="4" r:id="rId4"/>
+    <sheet name="ubuntu도커" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="224">
   <si>
     <t>OS</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -52,10 +52,6 @@
   </si>
   <si>
     <t>/application/kms</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">$python3 -m venv example </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -391,12 +387,591 @@
     <t>KMS 프로젝트</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>도커</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>docker</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yum update</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yum -y install docker docker_registry</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>실패</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dnf config-manager --add-repo=https://download.docker.com/linux/centos/docker-ce.repo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dnf repolist -v</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dnf install docker-ce</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dnf install docker-ce-3:18.09.1–3.el7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>systemctl enable --now docker</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>systemctl status docker</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>systemctl is-active docker</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>systemctl is-enabled docker</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>usermod -aG docker $USER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>newgrp docker</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>docker images</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>docker pull centos</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pull</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>push</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>create</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>start</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stop</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rmi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>run</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>commit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>registry</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>container</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>diff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>docker run -it centos:latest bash</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>docker ps</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>docker ps -a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>exit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dcoker restart 74ddd3b60b98</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>docker attach 74ddd3b60b98</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>docker pull ubuntu:bionic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>git --version</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>docker run -it ubuntu:bionic bash</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>docker diff f2c5285143d1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t># apt update</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t># apt install -y git</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t># git --version</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>f2c5285143d1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>docker commit f2c5285143d1 ubuntu:git</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>docker run -i -t ubuntu:git bash</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>docker rmi dc58ba1755c3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>docker info | grep Registry</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">$python3 -m venv venv </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dnf install glibc-langpack-ko -y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(d)locale</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>docker create -i -t --name kms03 centos:kms03 /bin/bash</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vmware(kms)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>docker start kms03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>docker attach kms03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>docker exec -it  kms03 /bin/bash</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ctrl+p+q</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이미지삭제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sudo docker rmi -f [이미지 id]</t>
+  </si>
+  <si>
+    <r>
+      <t>sudo docker rmi [</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF24292E"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>이미지</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF24292E"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> id]</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>컨테이너생성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>컨테이너접속</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>접속종료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>컨테이너실행</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>컨테이너삭제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>docker rm [컨테이너 id 또는 name]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>docker rm `docker ps -a -q`</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>컨테이너정지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>docker stop [컨테이너 id 또는 name]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>docker inspect [container_id]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메타검색</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상태보기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>docker status [container_id]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>docker rename [old] [new]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이름변경</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dnf install dbus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>locale -a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>docker run -it -e LC_ALL=C.UTF-8 --name=kms03 --rm centos:kms03 bash</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dnf -y install docker</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>podman이 설치됨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dnf remove docker</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.도커설치성공</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.도커설치실패</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dnf -y install docker-ce</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도커시스템등록</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>usermod -aG docker mykms</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>docker --version
+ocker version 20.10.2, build 2291f61</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.우분투다운</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>실행</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>docker run -it --name=kms00 ubuntu:bionic bash</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kms01만들기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>apt update</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>apt install python3.8 -y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>apt install vim -y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/usr/bin/python3.8 -m venv venv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>파이썬설치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vim설치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>개발환경설정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>apt install python3.8-venv -y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>root환경설정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>export LANG=C.UTF-8
+export LC_ALL=C.UTF-8
+source /application/kms/venv/bin/activate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>docker diff cfc6289dee6b</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>docker commit cfc6289dee6b ubuntu:kms01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비교</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kms01 완료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cd /;mkdir application;cd application; mkdir kms;cd kms</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vi /root/.profile</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>source ~/.profile</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/usr/bin/python3 -m venv venv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;- 왜인지 모르겠음!.2개 다하니 암튼 됨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kms02만들기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>apt최신화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>docker create -i -t --name kms01 ubuntu:kms01 /bin/bash</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>docker start kms01;kms attach kms01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>docker exec -it  kms01 /bin/bash</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>git 설치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>apt-cache policy;apt install git=버전</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mkdir /application/kms/install</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wget https://github.com/Kitware/CMake/releases/download/v3.19.3/cmake-3.19.3.tar.gz</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wget 설치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>apt install wget</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>open-ssl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>apt -y install g++</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>khaiii설치시작</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>khaiii설치종료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>./bootstrap --prefix=/usr/local</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>make;make install</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>apt install make</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>make 설치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아래 절차가 필요함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>apt install libssl-dev -y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cmake --version</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kms02완료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kms03완료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>docker diff kms01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>docker commit kms01 ubuntu:kms02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kms03만들기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>docker run -i -t --name kms02 ubuntu:kms02 /bin/bash</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>컨테이너run</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>docker stop kms01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -428,8 +1003,21 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF24292E"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF24292E"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -445,6 +1033,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -497,7 +1091,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
@@ -518,6 +1112,17 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -799,10 +1404,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -813,63 +1418,71 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B5" t="s">
         <v>55</v>
-      </c>
-      <c r="B5" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
+        <v>85</v>
+      </c>
+      <c r="B9" t="s">
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -880,10 +1493,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F95013B4-6537-4B37-84EA-02D6D90D0894}">
-  <dimension ref="A1:H138"/>
+  <dimension ref="A1:H139"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -897,7 +1510,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B1" s="11"/>
       <c r="C1" s="11"/>
@@ -918,28 +1531,28 @@
         <v>3</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>37</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="1"/>
     </row>
     <row r="4" spans="1:8" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="2"/>
@@ -947,107 +1560,107 @@
     </row>
     <row r="5" spans="1:8" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D5" s="2" t="s">
+      <c r="E5" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B6" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="D6" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>60</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B7" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="C7" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="D7" s="5" t="s">
         <v>65</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>66</v>
       </c>
       <c r="E7" s="2"/>
     </row>
     <row r="8" spans="1:8" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="C9" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="D9" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>71</v>
-      </c>
       <c r="E9" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>6</v>
+        <v>132</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E10" s="3" t="s">
         <v>51</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>15</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -1055,27 +1668,27 @@
     </row>
     <row r="12" spans="1:8" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>17</v>
-      </c>
       <c r="C12" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D12" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="D12" s="5" t="s">
-        <v>50</v>
-      </c>
       <c r="E12" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>19</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -1083,94 +1696,103 @@
     </row>
     <row r="14" spans="1:8" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>21</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="3"/>
     </row>
     <row r="15" spans="1:8" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" s="1" t="s">
+      <c r="A15" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>133</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>159</v>
+      </c>
+      <c r="D15" s="15"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="16" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="D16" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="E16" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="E15" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F15" s="6" t="s">
+      <c r="F16" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G16" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="G15" s="6" t="s">
+      <c r="H16" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="H15" s="7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="8" t="s">
+    </row>
+    <row r="17" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="B17" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="C17" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="C16" s="10" t="s">
+      <c r="D17" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="D16" s="9" t="s">
+      <c r="E17" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="E16" s="9" t="s">
+    </row>
+    <row r="18" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="4" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="4" t="s">
+      <c r="B18" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="C18" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="D18" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="E18" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="E17" s="1" t="s">
+    </row>
+    <row r="19" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="8" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="8" t="s">
+      <c r="B19" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="C19" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="B18" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-    </row>
-    <row r="19" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="4"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
     </row>
     <row r="20" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="4"/>
@@ -1235,7 +1857,13 @@
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
     </row>
-    <row r="29" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="29" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A29" s="4"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+    </row>
     <row r="30" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="31" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="32" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -1345,6 +1973,7 @@
     <row r="136" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="137" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="138" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="139" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:E1"/>
@@ -1360,181 +1989,755 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAAE8C1C-EF99-4DAB-9FC9-F5E759BB17DA}">
-  <dimension ref="A1:A138"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40722A64-E220-4EC8-A093-6CECADF00617}">
+  <dimension ref="B1:K29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="2" max="2" width="55" customWidth="1"/>
+    <col min="3" max="3" width="32.3984375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="2" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="3" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="4" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="6" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="7" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="8" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="9" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="10" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="11" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="12" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="13" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="14" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="15" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="16" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="18" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="19" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="20" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="21" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="22" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="23" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="24" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="25" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="26" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="27" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="28" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="29" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="30" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="31" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="32" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="33" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="34" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="35" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="36" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="37" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="38" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="39" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="40" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="41" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="42" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="43" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="44" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="45" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="46" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="47" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="48" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="49" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="50" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="51" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="52" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="53" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="54" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="55" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="56" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="57" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="58" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="59" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="60" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="61" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="62" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="63" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="64" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="65" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="66" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="67" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="68" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="69" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="70" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="71" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="72" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="73" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="74" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="75" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="76" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="77" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="78" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="79" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="80" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="81" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="82" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="83" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="84" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="85" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="86" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="87" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="88" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="89" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="90" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="91" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="92" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="93" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="94" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="95" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="96" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="97" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="98" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="99" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="100" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="101" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="102" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="103" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="104" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="105" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="106" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="107" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="108" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="109" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="110" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="111" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="112" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="113" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="114" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="115" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="116" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="117" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="118" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="119" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="120" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="121" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="122" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="123" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="124" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="125" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="126" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="127" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="128" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="129" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="130" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="131" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="132" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="133" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="134" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="135" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="136" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="137" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="138" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="1" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="G1" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="2" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B2" t="s">
+        <v>87</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B3" t="s">
+        <v>88</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B4" t="s">
+        <v>89</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B5" t="s">
+        <v>90</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B7" t="s">
+        <v>92</v>
+      </c>
+      <c r="C7" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B8" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B9" t="s">
+        <v>95</v>
+      </c>
+      <c r="C9" t="s">
+        <v>96</v>
+      </c>
+      <c r="D9" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B10" t="s">
+        <v>98</v>
+      </c>
+      <c r="C10" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B12" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B13" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B14" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B16" t="s">
+        <v>114</v>
+      </c>
+      <c r="C16" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B17" t="s">
+        <v>115</v>
+      </c>
+      <c r="C17" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B18" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B19" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B21" t="s">
+        <v>120</v>
+      </c>
+      <c r="C21" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B22" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B23" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B24" t="s">
+        <v>123</v>
+      </c>
+      <c r="C24" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="C25" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="C26" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B27" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B28" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B29" t="s">
+        <v>130</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40722A64-E220-4EC8-A093-6CECADF00617}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BD94245-4754-4A18-859C-5F3BFB5E6761}">
+  <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="12.19921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="54.796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="52" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="B2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>144</v>
+      </c>
+      <c r="B4" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>147</v>
+      </c>
+      <c r="B5" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>145</v>
+      </c>
+      <c r="B6" t="s">
+        <v>138</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
+        <v>146</v>
+      </c>
+      <c r="B7" t="s">
+        <v>140</v>
+      </c>
+      <c r="C7" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A10" t="s">
+        <v>151</v>
+      </c>
+      <c r="B10" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A11" t="s">
+        <v>148</v>
+      </c>
+      <c r="B11" t="s">
+        <v>149</v>
+      </c>
+      <c r="C11" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A12" t="s">
+        <v>141</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A14" t="s">
+        <v>154</v>
+      </c>
+      <c r="B14" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A15" t="s">
+        <v>155</v>
+      </c>
+      <c r="B15" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A16" t="s">
+        <v>158</v>
+      </c>
+      <c r="B16" t="s">
+        <v>157</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BD94245-4754-4A18-859C-5F3BFB5E6761}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB0AC86F-D1B5-4437-9350-2290733E294C}">
+  <dimension ref="A1:E38"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="14.3984375" style="17" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="53.8984375" customWidth="1"/>
+    <col min="3" max="3" width="29.796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.296875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="18" t="s">
+        <v>166</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="18" t="s">
+        <v>165</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="18" t="s">
+        <v>168</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="18"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+    </row>
+    <row r="6" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="18" t="s">
+        <v>171</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+    </row>
+    <row r="7" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="18" t="s">
+        <v>172</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+    </row>
+    <row r="8" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="18"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+    </row>
+    <row r="9" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="13" t="s">
+        <v>174</v>
+      </c>
+      <c r="B9" s="15"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+    </row>
+    <row r="10" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="18" t="s">
+        <v>195</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+    </row>
+    <row r="11" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="18" t="s">
+        <v>179</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="D11" s="1"/>
+    </row>
+    <row r="12" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="18" t="s">
+        <v>180</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+    </row>
+    <row r="13" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="18" t="s">
+        <v>183</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="18" t="s">
+        <v>181</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="E14" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="18" t="s">
+        <v>187</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+    </row>
+    <row r="16" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="18" t="s">
+        <v>188</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+    </row>
+    <row r="17" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="13" t="s">
+        <v>194</v>
+      </c>
+      <c r="B17" s="15"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15"/>
+    </row>
+    <row r="18" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+    </row>
+    <row r="19" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="18"/>
+      <c r="B19" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="18" t="s">
+        <v>199</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="D20" s="1"/>
+    </row>
+    <row r="21" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="18" t="s">
+        <v>203</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+    </row>
+    <row r="22" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="18" t="s">
+        <v>207</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+    </row>
+    <row r="23" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A23" s="18" t="s">
+        <v>205</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+    </row>
+    <row r="24" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+    </row>
+    <row r="25" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A25" s="18" t="s">
+        <v>212</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+    </row>
+    <row r="26" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A26" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A27" s="18" t="s">
+        <v>187</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="D27" s="1"/>
+      <c r="E27" s="19"/>
+    </row>
+    <row r="28" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A28" s="18" t="s">
+        <v>188</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="19"/>
+    </row>
+    <row r="29" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A29" s="13" t="s">
+        <v>216</v>
+      </c>
+      <c r="B29" s="15"/>
+      <c r="C29" s="15"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="19"/>
+    </row>
+    <row r="30" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A30" s="13" t="s">
+        <v>220</v>
+      </c>
+      <c r="B30" s="15"/>
+      <c r="C30" s="15"/>
+      <c r="D30" s="15"/>
+      <c r="E30" s="19"/>
+    </row>
+    <row r="31" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A31" s="18" t="s">
+        <v>222</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="19"/>
+    </row>
+    <row r="32" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A32" s="18"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="19"/>
+    </row>
+    <row r="33" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A33" s="20"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="19"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A34" s="18" t="s">
+        <v>208</v>
+      </c>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A35" s="18"/>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A36" s="18"/>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A37" s="18"/>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A38" s="13" t="s">
+        <v>217</v>
+      </c>
+      <c r="B38" s="15"/>
+      <c r="C38" s="15"/>
+      <c r="D38" s="15"/>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/KMS.xlsx
+++ b/KMS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\KMS_PROJECT\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D336160-A6E4-4460-BC20-F159B98057E6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{875C3DF9-E77B-4E2F-A763-E32EE15D634C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="미설치목록" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,8 @@
     <sheet name="도커연습" sheetId="3" r:id="rId3"/>
     <sheet name="centos도커" sheetId="4" r:id="rId4"/>
     <sheet name="ubuntu도커" sheetId="6" r:id="rId5"/>
+    <sheet name="git" sheetId="7" r:id="rId6"/>
+    <sheet name="svd환경설정" sheetId="8" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="254">
   <si>
     <t>OS</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -728,14 +730,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1.도커설치성공</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.도커설치실패</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>dnf -y install docker-ce</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -750,10 +744,6 @@
   <si>
     <t>docker --version
 ocker version 20.10.2, build 2291f61</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.우분투다운</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -903,10 +893,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>khaiii설치종료</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>./bootstrap --prefix=/usr/local</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -935,14 +921,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>kms02완료</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>kms03완료</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>docker diff kms01</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -951,10 +929,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>kms03만들기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>docker run -i -t --name kms02 ubuntu:kms02 /bin/bash</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -964,6 +938,332 @@
   </si>
   <si>
     <t>docker stop kms01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KMS 도커 이미지 만들기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(x)도커설치실패</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도커설치성공</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>우분투다운</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>git clone https://github.com/kakao/khaiii.git</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>khaii clone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mkdir build;cd build;cmake ..</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문제해결1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/jyy3k/221877665819</t>
+  </si>
+  <si>
+    <t>Locale-gen en_US.UTF-8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>apt-get install locales</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문제해결11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.popit.kr/docker-%EA%B4%80%EB%A0%A8-tip/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF666666"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>이</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF666666"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF666666"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>경우</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF666666"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF666666"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>다음과</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF666666"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF666666"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>같이</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF666666"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> loopback</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF666666"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>에</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF666666"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF666666"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>추가</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF666666"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> IP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF666666"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>를</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF666666"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF666666"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>부여하면</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF666666"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF666666"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>된다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF666666"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ifconfig lo0 alias 10.8.8.8 netmask 255.255.255.255 up</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nettools설치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>apt -y install locales</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>apt -y install net-tools</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로케일설치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>locale-gen en_US.UTF-8
+locale-gen ko_KR.UTF-8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>update-locale LANG=en_US.UTF-8
+update-locale LANG=ko_KR.UTF-8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>export LC_ALL,LANG=en_US.UTF-8
+export LC_ALL,LANG=ko_KR.UTF-8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">cd package_python;pip install  . </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>from khaiii import KhaiiiApi
+api = KhaiiiApi()
+for word in api.analyze('안녕,세상.'):
+    print(word)
+for word in api.analyze('안녕하세요.'):
+    print(word)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kms02 완료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>docker commit kms02 ubuntu:kms03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>docker stop kms02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>docker diff kms02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kms10만들기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kms10완료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dnf -y install net-tools</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yum groupinstall Fonts</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로케일(우)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로케일(센)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">dnf install langpacks-en  langpacks-ko
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dnf install glibc-langpack-en  glibc-langpack-ko</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yum locale 로 검색함</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -971,7 +1271,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1016,6 +1316,32 @@
       <family val="3"/>
       <charset val="129"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF222222"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF666666"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF666666"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF666666"/>
+      <name val="Arial"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -1043,7 +1369,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -1086,12 +1412,95 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
@@ -1109,9 +1518,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1120,9 +1526,50 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -1407,7 +1854,7 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1493,31 +1940,31 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F95013B4-6537-4B37-84EA-02D6D90D0894}">
-  <dimension ref="A1:H139"/>
+  <dimension ref="A1:M142"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="10.09765625" customWidth="1"/>
     <col min="2" max="2" width="28" customWidth="1"/>
-    <col min="3" max="3" width="18.8984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.69921875" customWidth="1"/>
     <col min="4" max="4" width="30.09765625" customWidth="1"/>
     <col min="5" max="5" width="25.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:6" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-    </row>
-    <row r="2" spans="1:8" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+    </row>
+    <row r="2" spans="1:6" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -1534,7 +1981,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:6" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="4" t="s">
         <v>34</v>
       </c>
@@ -1547,7 +1994,7 @@
       <c r="D3" s="2"/>
       <c r="E3" s="1"/>
     </row>
-    <row r="4" spans="1:8" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:6" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="4" t="s">
         <v>7</v>
       </c>
@@ -1558,7 +2005,7 @@
       <c r="D4" s="2"/>
       <c r="E4" s="1"/>
     </row>
-    <row r="5" spans="1:8" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:6" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="4" t="s">
         <v>8</v>
       </c>
@@ -1575,7 +2022,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:6" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="4" t="s">
         <v>52</v>
       </c>
@@ -1592,7 +2039,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:6" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="4" t="s">
         <v>62</v>
       </c>
@@ -1607,7 +2054,7 @@
       </c>
       <c r="E7" s="2"/>
     </row>
-    <row r="8" spans="1:8" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:6" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="4" t="s">
         <v>66</v>
       </c>
@@ -1621,7 +2068,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:6" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="4" t="s">
         <v>67</v>
       </c>
@@ -1638,7 +2085,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:6" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="4" t="s">
         <v>6</v>
       </c>
@@ -1655,7 +2102,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:6" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="4" t="s">
         <v>13</v>
       </c>
@@ -1666,7 +2113,7 @@
       <c r="D11" s="1"/>
       <c r="E11" s="3"/>
     </row>
-    <row r="12" spans="1:8" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:6" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4" t="s">
         <v>15</v>
       </c>
@@ -1683,7 +2130,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:6" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4" t="s">
         <v>17</v>
       </c>
@@ -1694,7 +2141,7 @@
       <c r="D13" s="1"/>
       <c r="E13" s="3"/>
     </row>
-    <row r="14" spans="1:8" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:6" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4" t="s">
         <v>19</v>
       </c>
@@ -1705,168 +2152,239 @@
       <c r="D14" s="1"/>
       <c r="E14" s="3"/>
     </row>
-    <row r="15" spans="1:8" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="13" t="s">
+    <row r="15" spans="1:6" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="12" t="s">
         <v>134</v>
       </c>
-      <c r="B15" s="14" t="s">
+      <c r="B15" s="13" t="s">
         <v>133</v>
       </c>
-      <c r="C15" s="15" t="s">
+      <c r="C15" s="14" t="s">
         <v>159</v>
       </c>
-      <c r="D15" s="15"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="16" t="s">
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="15" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:6" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="15"/>
+    </row>
+    <row r="17" spans="1:13" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="F17" s="15"/>
+    </row>
+    <row r="18" spans="1:13" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="F18" s="15"/>
+    </row>
+    <row r="19" spans="1:13" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B19" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C19" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D19" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="E19" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="F16" s="6" t="s">
+      <c r="F19" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="G16" s="6" t="s">
+      <c r="G19" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="H16" s="7" t="s">
+      <c r="H19" s="7" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="8" t="s">
+      <c r="I19" s="18" t="s">
+        <v>224</v>
+      </c>
+      <c r="J19" t="s">
+        <v>225</v>
+      </c>
+      <c r="K19" s="19" t="s">
+        <v>227</v>
+      </c>
+      <c r="L19" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="B17" s="9" t="s">
+      <c r="B20" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="C17" s="10" t="s">
+      <c r="C20" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="D17" s="9" t="s">
+      <c r="D20" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="E17" s="9" t="s">
+      <c r="E20" s="9" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="4" t="s">
+      <c r="J20" t="s">
+        <v>228</v>
+      </c>
+      <c r="K20" s="20" t="s">
+        <v>229</v>
+      </c>
+      <c r="L20" s="21" t="s">
+        <v>230</v>
+      </c>
+      <c r="M20" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B21" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C21" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D21" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="E21" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="8" t="s">
+    <row r="22" spans="1:13" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="B19" s="9" t="s">
+      <c r="B22" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="C19" s="9" t="s">
+      <c r="C22" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-    </row>
-    <row r="20" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="4"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-    </row>
-    <row r="21" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="4"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-    </row>
-    <row r="22" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="4"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-    </row>
-    <row r="23" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+    </row>
+    <row r="23" spans="1:13" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="4"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
     </row>
-    <row r="24" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:13" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="4"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
     </row>
-    <row r="25" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:13" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="4"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
     </row>
-    <row r="26" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:13" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="4"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
     </row>
-    <row r="27" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:13" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="4"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
     </row>
-    <row r="28" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:13" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="4"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
     </row>
-    <row r="29" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:13" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="4"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
     </row>
-    <row r="30" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="31" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="32" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="30" spans="1:13" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A30" s="4"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+    </row>
+    <row r="31" spans="1:13" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A31" s="4"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+    </row>
+    <row r="32" spans="1:13" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A32" s="4"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+    </row>
     <row r="33" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="34" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="35" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -1974,6 +2492,9 @@
     <row r="137" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="138" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="139" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="140" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="141" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="142" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:E1"/>
@@ -1982,18 +2503,19 @@
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1" xr:uid="{3B9224F2-3768-4782-8BDD-88090E686BC8}"/>
     <hyperlink ref="B12" r:id="rId2" xr:uid="{AD82E0E2-75B1-4305-8A09-2B4BA546CD3F}"/>
+    <hyperlink ref="K20" r:id="rId3" xr:uid="{4A4B342A-2DF0-4274-9F77-BB6A9CBE6E4F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40722A64-E220-4EC8-A093-6CECADF00617}">
-  <dimension ref="B1:K29"/>
+  <dimension ref="A1:K31"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -2143,7 +2665,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B17" t="s">
         <v>115</v>
       </c>
@@ -2151,17 +2673,17 @@
         <v>116</v>
       </c>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B18" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B19" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B21" t="s">
         <v>120</v>
       </c>
@@ -2169,17 +2691,17 @@
         <v>127</v>
       </c>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B22" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B23" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B24" t="s">
         <v>123</v>
       </c>
@@ -2187,29 +2709,37 @@
         <v>124</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.4">
       <c r="C25" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.4">
       <c r="C26" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B27" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B28" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B29" t="s">
         <v>130</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A31" t="s">
+        <v>158</v>
+      </c>
+      <c r="B31" t="s">
+        <v>157</v>
       </c>
     </row>
   </sheetData>
@@ -2223,7 +2753,7 @@
   <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -2304,10 +2834,10 @@
       <c r="A12" t="s">
         <v>141</v>
       </c>
-      <c r="B12" s="12" t="s">
+      <c r="B12" s="11" t="s">
         <v>143</v>
       </c>
-      <c r="C12" s="12" t="s">
+      <c r="C12" s="11" t="s">
         <v>142</v>
       </c>
     </row>
@@ -2343,25 +2873,33 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB0AC86F-D1B5-4437-9350-2290733E294C}">
-  <dimension ref="A1:E38"/>
+  <dimension ref="A1:E36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="14.3984375" style="17" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.3984375" style="16" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="53.8984375" customWidth="1"/>
     <col min="3" max="3" width="29.796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.09765625" customWidth="1"/>
+    <col min="5" max="5" width="50.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="1" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="22" t="s">
+        <v>217</v>
+      </c>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="31"/>
+    </row>
     <row r="2" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="18" t="s">
-        <v>166</v>
+      <c r="A2" s="4" t="s">
+        <v>218</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>162</v>
@@ -2369,13 +2907,14 @@
       <c r="C2" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="27" t="s">
         <v>164</v>
       </c>
+      <c r="E2" s="1"/>
     </row>
     <row r="3" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="18" t="s">
-        <v>165</v>
+      <c r="A3" s="4" t="s">
+        <v>219</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>90</v>
@@ -2383,16 +2922,16 @@
       <c r="C3" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>170</v>
+      <c r="D3" s="27" t="s">
+        <v>165</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="18" t="s">
-        <v>168</v>
+      <c r="A4" s="4" t="s">
+        <v>166</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>94</v>
@@ -2400,344 +2939,427 @@
       <c r="C4" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>169</v>
-      </c>
+      <c r="D4" s="27" t="s">
+        <v>167</v>
+      </c>
+      <c r="E4" s="1"/>
     </row>
     <row r="5" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="18"/>
+      <c r="A5" s="4"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
+      <c r="D5" s="27"/>
+      <c r="E5" s="1"/>
     </row>
     <row r="6" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="18" t="s">
-        <v>171</v>
+      <c r="A6" s="4" t="s">
+        <v>220</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>120</v>
       </c>
       <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="1"/>
     </row>
     <row r="7" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="18" t="s">
+      <c r="A7" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="1"/>
+    </row>
+    <row r="8" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="23" t="s">
+        <v>171</v>
+      </c>
+      <c r="B8" s="24"/>
+      <c r="C8" s="24"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="25"/>
+    </row>
+    <row r="9" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="C9" s="1"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="1"/>
+    </row>
+    <row r="10" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-    </row>
-    <row r="8" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="18"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-    </row>
-    <row r="9" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="13" t="s">
+      <c r="C10" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D10" s="27"/>
+      <c r="E10" s="1"/>
+    </row>
+    <row r="11" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="B9" s="15"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-    </row>
-    <row r="10" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="18" t="s">
+      <c r="C11" s="1"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="1"/>
+    </row>
+    <row r="12" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="D12" s="27" t="s">
+        <v>188</v>
+      </c>
+      <c r="E12" s="1"/>
+    </row>
+    <row r="13" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="D13" s="27" t="s">
+        <v>189</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C14" s="1"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="1"/>
+    </row>
+    <row r="15" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="C15" s="3"/>
+      <c r="D15" s="28"/>
+      <c r="E15" s="3"/>
+    </row>
+    <row r="16" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="23" t="s">
+        <v>191</v>
+      </c>
+      <c r="B16" s="24"/>
+      <c r="C16" s="24"/>
+      <c r="D16" s="24"/>
+      <c r="E16" s="25"/>
+    </row>
+    <row r="17" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="C17" s="1"/>
+      <c r="D17" s="27"/>
+      <c r="E17" s="1"/>
+    </row>
+    <row r="18" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="4"/>
+      <c r="B18" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D18" s="27" t="s">
         <v>195</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-    </row>
-    <row r="11" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="18" t="s">
-        <v>179</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="D11" s="1"/>
-    </row>
-    <row r="12" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="18" t="s">
-        <v>180</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-    </row>
-    <row r="13" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="18" t="s">
-        <v>183</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="18" t="s">
-        <v>181</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="E14" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="18" t="s">
-        <v>187</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-    </row>
-    <row r="16" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="18" t="s">
-        <v>188</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-    </row>
-    <row r="17" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="13" t="s">
-        <v>194</v>
-      </c>
-      <c r="B17" s="15"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="15"/>
-    </row>
-    <row r="18" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="18" t="s">
-        <v>144</v>
-      </c>
-      <c r="B18" s="1" t="s">
+      <c r="E18" s="1"/>
+    </row>
+    <row r="19" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-    </row>
-    <row r="19" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="18"/>
       <c r="B19" s="1" t="s">
         <v>197</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="D19" s="1" t="s">
         <v>198</v>
       </c>
+      <c r="D19" s="27"/>
+      <c r="E19" s="1"/>
     </row>
     <row r="20" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="18" t="s">
+      <c r="A20" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="C20" s="1"/>
+      <c r="D20" s="27"/>
+      <c r="E20" s="1"/>
+    </row>
+    <row r="21" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="C21" s="1"/>
+      <c r="D21" s="27"/>
+      <c r="E21" s="1"/>
+    </row>
+    <row r="22" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="C22" s="1"/>
+      <c r="D22" s="27"/>
+      <c r="E22" s="1"/>
+    </row>
+    <row r="23" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A23" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="C23" s="1"/>
+      <c r="D23" s="27"/>
+      <c r="E23" s="1"/>
+    </row>
+    <row r="24" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C24" s="1"/>
+      <c r="D24" s="27"/>
+      <c r="E24" s="1"/>
+    </row>
+    <row r="25" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A25" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="D20" s="1"/>
-    </row>
-    <row r="21" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="18" t="s">
-        <v>203</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-    </row>
-    <row r="22" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="18" t="s">
-        <v>207</v>
-      </c>
-      <c r="B22" s="1" t="s">
+      <c r="C25" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="D25" s="27" t="s">
+        <v>206</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A26" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="D26" s="27"/>
+      <c r="E26" s="3"/>
+    </row>
+    <row r="27" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A27" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-    </row>
-    <row r="23" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="18" t="s">
-        <v>205</v>
-      </c>
-      <c r="B23" s="1" t="s">
+      <c r="C27" s="1"/>
+      <c r="D27" s="27"/>
+      <c r="E27" s="3"/>
+    </row>
+    <row r="28" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A28" s="23" t="s">
+        <v>245</v>
+      </c>
+      <c r="B28" s="24"/>
+      <c r="C28" s="24"/>
+      <c r="D28" s="24"/>
+      <c r="E28" s="25"/>
+    </row>
+    <row r="29" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A29" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-    </row>
-    <row r="24" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-    </row>
-    <row r="25" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="18" t="s">
-        <v>212</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-    </row>
-    <row r="26" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="E26" s="6" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="18" t="s">
-        <v>187</v>
-      </c>
-      <c r="B27" s="1" t="s">
+      <c r="C29" s="3"/>
+      <c r="D29" s="28"/>
+      <c r="E29" s="3"/>
+    </row>
+    <row r="30" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A30" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="C30" s="1"/>
+      <c r="D30" s="27"/>
+      <c r="E30" s="1"/>
+    </row>
+    <row r="31" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A31" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="D31" s="29" t="s">
+        <v>237</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A32" s="32" t="s">
+        <v>222</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="C32" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="C27" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="D27" s="1"/>
-      <c r="E27" s="19"/>
-    </row>
-    <row r="28" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A28" s="18" t="s">
-        <v>188</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="19"/>
-    </row>
-    <row r="29" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="13" t="s">
-        <v>216</v>
-      </c>
-      <c r="B29" s="15"/>
-      <c r="C29" s="15"/>
-      <c r="D29" s="15"/>
-      <c r="E29" s="19"/>
-    </row>
-    <row r="30" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A30" s="13" t="s">
-        <v>220</v>
-      </c>
-      <c r="B30" s="15"/>
-      <c r="C30" s="15"/>
-      <c r="D30" s="15"/>
-      <c r="E30" s="19"/>
-    </row>
-    <row r="31" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A31" s="18" t="s">
-        <v>222</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="19"/>
-    </row>
-    <row r="32" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A32" s="18"/>
-      <c r="B32" s="1"/>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="19"/>
+      <c r="D32" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="E32" s="3"/>
     </row>
     <row r="33" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A33" s="20"/>
-      <c r="B33" s="3"/>
-      <c r="C33" s="3"/>
-      <c r="D33" s="3"/>
-      <c r="E33" s="19"/>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A34" s="18" t="s">
-        <v>208</v>
-      </c>
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
+      <c r="A33" s="33"/>
+      <c r="B33" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D33" s="30" t="s">
+        <v>239</v>
+      </c>
+      <c r="E33" s="3"/>
+    </row>
+    <row r="34" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A34" s="34"/>
+      <c r="B34" s="26" t="s">
+        <v>240</v>
+      </c>
+      <c r="C34" s="3"/>
+      <c r="D34" s="30"/>
+      <c r="E34" s="3"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A35" s="18"/>
-      <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
+      <c r="A35" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="D35" s="27"/>
+      <c r="E35" s="1"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A36" s="18"/>
-      <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A37" s="18"/>
-      <c r="B37" s="1"/>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A38" s="13" t="s">
-        <v>217</v>
-      </c>
-      <c r="B38" s="15"/>
-      <c r="C38" s="15"/>
-      <c r="D38" s="15"/>
+      <c r="A36" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="C36" s="3"/>
+      <c r="D36" s="28"/>
+      <c r="E36" s="3"/>
     </row>
   </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="A16:E16"/>
+    <mergeCell ref="A28:E28"/>
+    <mergeCell ref="A32:A34"/>
+    <mergeCell ref="A1:E1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{418951F5-1FC2-46F1-9193-D7D542FC91E1}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M7" sqref="M7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FC11B7B-0B3B-4F0E-ABC7-D53C4FF33C9A}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I24" sqref="I24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/KMS.xlsx
+++ b/KMS.xlsx
@@ -8,18 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\KMS_PROJECT\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{875C3DF9-E77B-4E2F-A763-E32EE15D634C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1AB32EE-F054-42B5-BC09-43994457DFB1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="미설치목록" sheetId="1" r:id="rId1"/>
-    <sheet name="환경설정테스트" sheetId="2" r:id="rId2"/>
-    <sheet name="도커연습" sheetId="3" r:id="rId3"/>
-    <sheet name="centos도커" sheetId="4" r:id="rId4"/>
-    <sheet name="ubuntu도커" sheetId="6" r:id="rId5"/>
-    <sheet name="git" sheetId="7" r:id="rId6"/>
-    <sheet name="svd환경설정" sheetId="8" r:id="rId7"/>
+    <sheet name="전체 아키텍처" sheetId="9" r:id="rId1"/>
+    <sheet name="ubuntu도커" sheetId="6" r:id="rId2"/>
+    <sheet name="환경설정테스트" sheetId="2" r:id="rId3"/>
+    <sheet name="미설치목록" sheetId="1" r:id="rId4"/>
+    <sheet name="centos도커" sheetId="4" r:id="rId5"/>
+    <sheet name="도커연습" sheetId="3" r:id="rId6"/>
+    <sheet name="git" sheetId="7" r:id="rId7"/>
+    <sheet name="ELK설치" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="288">
   <si>
     <t>OS</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -755,10 +756,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>kms01만들기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>apt update</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -837,10 +834,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>kms02만들기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>apt최신화</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -958,10 +951,6 @@
   </si>
   <si>
     <t>git clone https://github.com/kakao/khaiii.git</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>khaii clone</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1218,19 +1207,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>docker commit kms02 ubuntu:kms03</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>docker stop kms02</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>docker diff kms02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>kms10만들기</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1264,6 +1245,165 @@
   </si>
   <si>
     <t>yum locale 로 검색함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kms01만들기 - 파이썬/vim</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kms02만들기 - git/wget/g++</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kms10만들기 - khaiii/locale</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>docker commit kms02 ubuntu:kms10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>docker run -i -t --name kms10 ubuntu:kms10 /bin/bash</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>supervisor설치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kms11완료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>docker diff kms10; docker commit kms10 ubuntu:kms11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>환경설정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kms11만들기 - supervisor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kms12만들기 - flask</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>docker diff kms11; docker commit kms11 ubuntu:kms12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>flask설치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>khaiii clone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kms13만들기 - batch scheduler</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kms12완료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>docker diff kms12; docker commit kms12 ubuntu:kms13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kms20만들기 - 도커 배포 후 환경 설정(마운트, 웹포트, 환경변수 재설정)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>docker diff kms13; docker commit kms13 ubuntu:kms20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>docker run -i -t --name kms10 ubuntu:kms13 /bin/bash</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>docker run -i -t --name kms10 ubuntu:kms12 /bin/bash</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>docker run -i -t --name kms10 ubuntu:kms11 /bin/bash</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Flask</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Supervisor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Batch(Schedule)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인터페이스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>REST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DB API, NAS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>실시간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주기적</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>준실시간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LIBS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>엘라스틱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>키바나</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>형태소 분석
+데이터전처리
+TDD용도
+시각화용도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>업무</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리도구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Batch(Event)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HTTP</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1343,7 +1483,7 @@
       <charset val="129"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1365,6 +1505,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1500,7 +1652,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
@@ -1526,26 +1678,11 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1558,7 +1695,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1570,6 +1716,38 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -1850,105 +2028,791 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86D01950-6A35-49C9-9876-E8CDB7C11052}">
+  <dimension ref="D6:I10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="21.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.59765625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.59765625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.3984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.8984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.3984375" customWidth="1"/>
+    <col min="8" max="8" width="11.8984375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.59765625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A3" t="s">
+    <row r="6" spans="4:9" x14ac:dyDescent="0.4">
+      <c r="D6" s="44" t="s">
         <v>32</v>
       </c>
-      <c r="B3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A5" t="s">
-        <v>54</v>
-      </c>
-      <c r="B5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A6" t="s">
-        <v>57</v>
-      </c>
-      <c r="B6" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A7" t="s">
-        <v>27</v>
-      </c>
-      <c r="B7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A8" t="s">
-        <v>53</v>
-      </c>
-      <c r="B8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A9" t="s">
+      <c r="E6" s="12" t="s">
+        <v>274</v>
+      </c>
+      <c r="F6" s="43" t="s">
         <v>85</v>
       </c>
-      <c r="B9" t="s">
-        <v>86</v>
+      <c r="G6" s="43"/>
+      <c r="H6" s="12" t="s">
+        <v>274</v>
+      </c>
+      <c r="I6" s="45" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="7" spans="4:9" x14ac:dyDescent="0.4">
+      <c r="D7" s="37" t="s">
+        <v>281</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>275</v>
+      </c>
+      <c r="F7" s="38" t="s">
+        <v>272</v>
+      </c>
+      <c r="G7" s="36" t="s">
+        <v>271</v>
+      </c>
+      <c r="H7" s="14" t="s">
+        <v>275</v>
+      </c>
+      <c r="I7" s="46" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="8" spans="4:9" x14ac:dyDescent="0.4">
+      <c r="D8" s="37" t="s">
+        <v>282</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>287</v>
+      </c>
+      <c r="F8" s="39"/>
+      <c r="G8" s="36" t="s">
+        <v>273</v>
+      </c>
+      <c r="H8" s="14" t="s">
+        <v>276</v>
+      </c>
+      <c r="I8" s="46" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="9" spans="4:9" x14ac:dyDescent="0.4">
+      <c r="D9" s="37" t="s">
+        <v>285</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>287</v>
+      </c>
+      <c r="F9" s="40"/>
+      <c r="G9" s="36" t="s">
+        <v>286</v>
+      </c>
+      <c r="H9" s="14" t="s">
+        <v>276</v>
+      </c>
+      <c r="I9" s="46" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="10" spans="4:9" ht="69.599999999999994" x14ac:dyDescent="0.4">
+      <c r="F10" s="41" t="s">
+        <v>280</v>
+      </c>
+      <c r="G10" s="42" t="s">
+        <v>283</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="F7:F9"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB0AC86F-D1B5-4437-9350-2290733E294C}">
+  <dimension ref="A1:E56"/>
+  <sheetViews>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="14.3984375" style="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="53.8984375" customWidth="1"/>
+    <col min="3" max="3" width="29.796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.09765625" customWidth="1"/>
+    <col min="5" max="5" width="50.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="33" t="s">
+        <v>215</v>
+      </c>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="34"/>
+    </row>
+    <row r="2" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="D2" s="22" t="s">
+        <v>164</v>
+      </c>
+      <c r="E2" s="1"/>
+    </row>
+    <row r="3" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D3" s="22" t="s">
+        <v>165</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D4" s="22" t="s">
+        <v>167</v>
+      </c>
+      <c r="E4" s="1"/>
+    </row>
+    <row r="5" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="4"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="1"/>
+    </row>
+    <row r="6" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="1"/>
+    </row>
+    <row r="7" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="1"/>
+    </row>
+    <row r="8" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="27" t="s">
+        <v>249</v>
+      </c>
+      <c r="B8" s="28"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="29"/>
+    </row>
+    <row r="9" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="1"/>
+    </row>
+    <row r="10" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D10" s="22"/>
+      <c r="E10" s="1"/>
+    </row>
+    <row r="11" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="1"/>
+    </row>
+    <row r="12" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="D12" s="22" t="s">
+        <v>187</v>
+      </c>
+      <c r="E12" s="1"/>
+    </row>
+    <row r="13" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="D13" s="22" t="s">
+        <v>188</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="C14" s="1"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="1"/>
+    </row>
+    <row r="15" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="C15" s="3"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="3"/>
+    </row>
+    <row r="16" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="27" t="s">
+        <v>250</v>
+      </c>
+      <c r="B16" s="28"/>
+      <c r="C16" s="28"/>
+      <c r="D16" s="28"/>
+      <c r="E16" s="29"/>
+    </row>
+    <row r="17" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="C17" s="1"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="1"/>
+    </row>
+    <row r="18" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="4"/>
+      <c r="B18" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D18" s="22" t="s">
+        <v>193</v>
+      </c>
+      <c r="E18" s="1"/>
+    </row>
+    <row r="19" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="D19" s="22"/>
+      <c r="E19" s="1"/>
+    </row>
+    <row r="20" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="C20" s="1"/>
+      <c r="D20" s="22"/>
+      <c r="E20" s="1"/>
+    </row>
+    <row r="21" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C21" s="1"/>
+      <c r="D21" s="22"/>
+      <c r="E21" s="1"/>
+    </row>
+    <row r="22" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="C22" s="1"/>
+      <c r="D22" s="22"/>
+      <c r="E22" s="1"/>
+    </row>
+    <row r="23" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A23" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="C23" s="1"/>
+      <c r="D23" s="22"/>
+      <c r="E23" s="1"/>
+    </row>
+    <row r="24" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C24" s="1"/>
+      <c r="D24" s="22"/>
+      <c r="E24" s="1"/>
+    </row>
+    <row r="25" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A25" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="D25" s="22" t="s">
+        <v>204</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A26" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="D26" s="22"/>
+      <c r="E26" s="3"/>
+    </row>
+    <row r="27" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A27" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="C27" s="1"/>
+      <c r="D27" s="22"/>
+      <c r="E27" s="3"/>
+    </row>
+    <row r="28" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A28" s="27" t="s">
+        <v>251</v>
+      </c>
+      <c r="B28" s="28"/>
+      <c r="C28" s="28"/>
+      <c r="D28" s="28"/>
+      <c r="E28" s="29"/>
+    </row>
+    <row r="29" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A29" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="C29" s="3"/>
+      <c r="D29" s="23"/>
+      <c r="E29" s="3"/>
+    </row>
+    <row r="30" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A30" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="C30" s="1"/>
+      <c r="D30" s="22"/>
+      <c r="E30" s="1"/>
+    </row>
+    <row r="31" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A31" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="D31" s="24" t="s">
+        <v>234</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A32" s="30" t="s">
+        <v>262</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="D32" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="E32" s="3"/>
+    </row>
+    <row r="33" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A33" s="31"/>
+      <c r="B33" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D33" s="25" t="s">
+        <v>236</v>
+      </c>
+      <c r="E33" s="3"/>
+    </row>
+    <row r="34" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A34" s="32"/>
+      <c r="B34" s="21" t="s">
+        <v>237</v>
+      </c>
+      <c r="C34" s="3"/>
+      <c r="D34" s="25"/>
+      <c r="E34" s="3"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A35" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="D35" s="22"/>
+      <c r="E35" s="1"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A36" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="C36" s="3"/>
+      <c r="D36" s="23"/>
+      <c r="E36" s="3"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A37" s="27" t="s">
+        <v>258</v>
+      </c>
+      <c r="B37" s="28"/>
+      <c r="C37" s="28"/>
+      <c r="D37" s="28"/>
+      <c r="E37" s="29"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A38" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A39" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A40" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A41" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A42" s="27" t="s">
+        <v>259</v>
+      </c>
+      <c r="B42" s="28"/>
+      <c r="C42" s="28"/>
+      <c r="D42" s="28"/>
+      <c r="E42" s="29"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A43" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A44" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="B44" s="1"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A45" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="B45" s="1"/>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A46" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A47" s="27" t="s">
+        <v>263</v>
+      </c>
+      <c r="B47" s="28"/>
+      <c r="C47" s="28"/>
+      <c r="D47" s="28"/>
+      <c r="E47" s="29"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A48" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="C48" s="1"/>
+      <c r="D48" s="1"/>
+      <c r="E48" s="1"/>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A49" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="B49" s="1"/>
+      <c r="C49" s="1"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1"/>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A50" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="B50" s="1"/>
+      <c r="C50" s="1"/>
+      <c r="D50" s="1"/>
+      <c r="E50" s="1"/>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A51" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="C51" s="1"/>
+      <c r="D51" s="1"/>
+      <c r="E51" s="1"/>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A52" s="27" t="s">
+        <v>266</v>
+      </c>
+      <c r="B52" s="28"/>
+      <c r="C52" s="28"/>
+      <c r="D52" s="28"/>
+      <c r="E52" s="29"/>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A53" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="C53" s="1"/>
+      <c r="D53" s="1"/>
+      <c r="E53" s="1"/>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A54" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="B54" s="1"/>
+      <c r="C54" s="1"/>
+      <c r="D54" s="1"/>
+      <c r="E54" s="1"/>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A55" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="B55" s="1"/>
+      <c r="C55" s="1"/>
+      <c r="D55" s="1"/>
+      <c r="E55" s="1"/>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A56" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="C56" s="1"/>
+      <c r="D56" s="1"/>
+      <c r="E56" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A37:E37"/>
+    <mergeCell ref="A42:E42"/>
+    <mergeCell ref="A47:E47"/>
+    <mergeCell ref="A52:E52"/>
+    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="A16:E16"/>
+    <mergeCell ref="A28:E28"/>
+    <mergeCell ref="A32:A34"/>
+    <mergeCell ref="A1:E1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F95013B4-6537-4B37-84EA-02D6D90D0894}">
   <dimension ref="A1:M142"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="10.09765625" customWidth="1"/>
+    <col min="1" max="1" width="12.69921875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="28" customWidth="1"/>
     <col min="3" max="3" width="28.69921875" customWidth="1"/>
     <col min="4" max="4" width="30.09765625" customWidth="1"/>
@@ -1956,13 +2820,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="26" t="s">
         <v>84</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
     </row>
     <row r="2" spans="1:6" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="4" t="s">
@@ -2169,52 +3033,52 @@
       </c>
     </row>
     <row r="16" spans="1:6" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="4" t="s">
-        <v>232</v>
-      </c>
-      <c r="B16" s="1" t="s">
+      <c r="A16" s="12" t="s">
+        <v>229</v>
+      </c>
+      <c r="B16" s="14" t="s">
+        <v>231</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>242</v>
+      </c>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="15"/>
+    </row>
+    <row r="17" spans="1:13" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="12" t="s">
+        <v>244</v>
+      </c>
+      <c r="B17" s="14" t="s">
+        <v>230</v>
+      </c>
+      <c r="C17" s="35" t="s">
+        <v>233</v>
+      </c>
+      <c r="D17" s="35" t="s">
         <v>234</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="E17" s="35" t="s">
+        <v>235</v>
+      </c>
+      <c r="F17" s="15"/>
+    </row>
+    <row r="18" spans="1:13" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="12" t="s">
+        <v>245</v>
+      </c>
+      <c r="B18" s="14" t="s">
+        <v>243</v>
+      </c>
+      <c r="C18" s="35" t="s">
+        <v>246</v>
+      </c>
+      <c r="D18" s="35" t="s">
         <v>247</v>
       </c>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="15"/>
-    </row>
-    <row r="17" spans="1:13" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="4" t="s">
-        <v>249</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>237</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>238</v>
-      </c>
-      <c r="F17" s="15"/>
-    </row>
-    <row r="18" spans="1:13" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="4" t="s">
-        <v>250</v>
-      </c>
-      <c r="B18" s="1" t="s">
+      <c r="E18" s="35" t="s">
         <v>248</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>251</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>252</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>253</v>
       </c>
       <c r="F18" s="15"/>
     </row>
@@ -2243,17 +3107,17 @@
       <c r="H19" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="I19" s="18" t="s">
+      <c r="I19" s="17" t="s">
+        <v>221</v>
+      </c>
+      <c r="J19" t="s">
+        <v>222</v>
+      </c>
+      <c r="K19" s="18" t="s">
         <v>224</v>
       </c>
-      <c r="J19" t="s">
-        <v>225</v>
-      </c>
-      <c r="K19" s="19" t="s">
-        <v>227</v>
-      </c>
       <c r="L19" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
     </row>
     <row r="20" spans="1:13" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
@@ -2273,16 +3137,16 @@
         <v>75</v>
       </c>
       <c r="J20" t="s">
+        <v>225</v>
+      </c>
+      <c r="K20" s="19" t="s">
+        <v>226</v>
+      </c>
+      <c r="L20" s="20" t="s">
+        <v>227</v>
+      </c>
+      <c r="M20" t="s">
         <v>228</v>
-      </c>
-      <c r="K20" s="20" t="s">
-        <v>229</v>
-      </c>
-      <c r="L20" s="21" t="s">
-        <v>230</v>
-      </c>
-      <c r="M20" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="21" spans="1:13" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
@@ -2510,236 +3374,87 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40722A64-E220-4EC8-A093-6CECADF00617}">
-  <dimension ref="A1:K31"/>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="55" customWidth="1"/>
-    <col min="3" max="3" width="32.3984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="G1" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B2" t="s">
-        <v>87</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>32</v>
+      </c>
       <c r="B3" t="s">
-        <v>88</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>33</v>
+      </c>
       <c r="B4" t="s">
-        <v>89</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.4">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>54</v>
+      </c>
       <c r="B5" t="s">
-        <v>90</v>
-      </c>
-      <c r="H5" s="6" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.4">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>57</v>
+      </c>
       <c r="B6" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.4">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
+        <v>27</v>
+      </c>
       <c r="B7" t="s">
-        <v>92</v>
-      </c>
-      <c r="C7" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.4">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
+        <v>53</v>
+      </c>
       <c r="B8" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.4">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
+        <v>85</v>
+      </c>
       <c r="B9" t="s">
-        <v>95</v>
-      </c>
-      <c r="C9" t="s">
-        <v>96</v>
-      </c>
-      <c r="D9" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B10" t="s">
-        <v>98</v>
-      </c>
-      <c r="C10" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B12" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B13" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B14" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B16" t="s">
-        <v>114</v>
-      </c>
-      <c r="C16" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B17" t="s">
-        <v>115</v>
-      </c>
-      <c r="C17" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B18" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B19" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B21" t="s">
-        <v>120</v>
-      </c>
-      <c r="C21" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B22" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B23" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B24" t="s">
-        <v>123</v>
-      </c>
-      <c r="C24" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="C25" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="C26" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B27" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B28" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B29" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A31" t="s">
-        <v>158</v>
-      </c>
-      <c r="B31" t="s">
-        <v>157</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -2748,12 +3463,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BD94245-4754-4A18-859C-5F3BFB5E6761}">
   <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -2871,471 +3586,245 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB0AC86F-D1B5-4437-9350-2290733E294C}">
-  <dimension ref="A1:E36"/>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40722A64-E220-4EC8-A093-6CECADF00617}">
+  <dimension ref="A1:K31"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="14.3984375" style="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="53.8984375" customWidth="1"/>
-    <col min="3" max="3" width="29.796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.09765625" customWidth="1"/>
-    <col min="5" max="5" width="50.5" customWidth="1"/>
+    <col min="2" max="2" width="55" customWidth="1"/>
+    <col min="3" max="3" width="32.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="22" t="s">
-        <v>217</v>
-      </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="31"/>
-    </row>
-    <row r="2" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="4" t="s">
-        <v>218</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="D2" s="27" t="s">
-        <v>164</v>
-      </c>
-      <c r="E2" s="1"/>
-    </row>
-    <row r="3" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="4" t="s">
-        <v>219</v>
-      </c>
-      <c r="B3" s="1" t="s">
+    <row r="1" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="G1" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="2" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B2" t="s">
+        <v>87</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B3" t="s">
+        <v>88</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B4" t="s">
+        <v>89</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B5" t="s">
         <v>90</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="H5" s="6" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B6" t="s">
         <v>91</v>
       </c>
-      <c r="D3" s="27" t="s">
-        <v>165</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="B4" s="1" t="s">
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B7" t="s">
+        <v>92</v>
+      </c>
+      <c r="C7" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B8" t="s">
         <v>94</v>
       </c>
-      <c r="C4" s="1" t="s">
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B9" t="s">
         <v>95</v>
       </c>
-      <c r="D4" s="27" t="s">
-        <v>167</v>
-      </c>
-      <c r="E4" s="1"/>
-    </row>
-    <row r="5" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="4"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="27"/>
-      <c r="E5" s="1"/>
-    </row>
-    <row r="6" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="4" t="s">
-        <v>220</v>
-      </c>
-      <c r="B6" s="1" t="s">
+      <c r="C9" t="s">
+        <v>96</v>
+      </c>
+      <c r="D9" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B10" t="s">
+        <v>98</v>
+      </c>
+      <c r="C10" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B12" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B13" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B14" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B16" t="s">
+        <v>114</v>
+      </c>
+      <c r="C16" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="B17" t="s">
+        <v>115</v>
+      </c>
+      <c r="C17" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="B18" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="B19" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="B21" t="s">
         <v>120</v>
       </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="27"/>
-      <c r="E6" s="1"/>
-    </row>
-    <row r="7" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="27"/>
-      <c r="E7" s="1"/>
-    </row>
-    <row r="8" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="23" t="s">
-        <v>171</v>
-      </c>
-      <c r="B8" s="24"/>
-      <c r="C8" s="24"/>
-      <c r="D8" s="24"/>
-      <c r="E8" s="25"/>
-    </row>
-    <row r="9" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="C9" s="1"/>
-      <c r="D9" s="27"/>
-      <c r="E9" s="1"/>
-    </row>
-    <row r="10" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="D10" s="27"/>
-      <c r="E10" s="1"/>
-    </row>
-    <row r="11" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="27"/>
-      <c r="E11" s="1"/>
-    </row>
-    <row r="12" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="D12" s="27" t="s">
-        <v>188</v>
-      </c>
-      <c r="E12" s="1"/>
-    </row>
-    <row r="13" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="D13" s="27" t="s">
-        <v>189</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="C14" s="1"/>
-      <c r="D14" s="27"/>
-      <c r="E14" s="1"/>
-    </row>
-    <row r="15" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="C15" s="3"/>
-      <c r="D15" s="28"/>
-      <c r="E15" s="3"/>
-    </row>
-    <row r="16" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="23" t="s">
-        <v>191</v>
-      </c>
-      <c r="B16" s="24"/>
-      <c r="C16" s="24"/>
-      <c r="D16" s="24"/>
-      <c r="E16" s="25"/>
-    </row>
-    <row r="17" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="C17" s="1"/>
-      <c r="D17" s="27"/>
-      <c r="E17" s="1"/>
-    </row>
-    <row r="18" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="4"/>
-      <c r="B18" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="D18" s="27" t="s">
-        <v>195</v>
-      </c>
-      <c r="E18" s="1"/>
-    </row>
-    <row r="19" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="D19" s="27"/>
-      <c r="E19" s="1"/>
-    </row>
-    <row r="20" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="C20" s="1"/>
-      <c r="D20" s="27"/>
-      <c r="E20" s="1"/>
-    </row>
-    <row r="21" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="C21" s="1"/>
-      <c r="D21" s="27"/>
-      <c r="E21" s="1"/>
-    </row>
-    <row r="22" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="C22" s="1"/>
-      <c r="D22" s="27"/>
-      <c r="E22" s="1"/>
-    </row>
-    <row r="23" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="C23" s="1"/>
-      <c r="D23" s="27"/>
-      <c r="E23" s="1"/>
-    </row>
-    <row r="24" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="C24" s="1"/>
-      <c r="D24" s="27"/>
-      <c r="E24" s="1"/>
-    </row>
-    <row r="25" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="D25" s="27" t="s">
-        <v>206</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="D26" s="27"/>
-      <c r="E26" s="3"/>
-    </row>
-    <row r="27" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="4" t="s">
-        <v>241</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="C27" s="1"/>
-      <c r="D27" s="27"/>
-      <c r="E27" s="3"/>
-    </row>
-    <row r="28" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A28" s="23" t="s">
-        <v>245</v>
-      </c>
-      <c r="B28" s="24"/>
-      <c r="C28" s="24"/>
-      <c r="D28" s="24"/>
-      <c r="E28" s="25"/>
-    </row>
-    <row r="29" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="C29" s="3"/>
-      <c r="D29" s="28"/>
-      <c r="E29" s="3"/>
-    </row>
-    <row r="30" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A30" s="4" t="s">
-        <v>232</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="C30" s="1"/>
-      <c r="D30" s="27"/>
-      <c r="E30" s="1"/>
-    </row>
-    <row r="31" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A31" s="4" t="s">
-        <v>235</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="C31" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="D31" s="29" t="s">
-        <v>237</v>
-      </c>
-      <c r="E31" s="5" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A32" s="32" t="s">
-        <v>222</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="D32" s="28" t="s">
-        <v>45</v>
-      </c>
-      <c r="E32" s="3"/>
-    </row>
-    <row r="33" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A33" s="33"/>
-      <c r="B33" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D33" s="30" t="s">
-        <v>239</v>
-      </c>
-      <c r="E33" s="3"/>
-    </row>
-    <row r="34" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A34" s="34"/>
-      <c r="B34" s="26" t="s">
-        <v>240</v>
-      </c>
-      <c r="C34" s="3"/>
-      <c r="D34" s="30"/>
-      <c r="E34" s="3"/>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A35" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="D35" s="27"/>
-      <c r="E35" s="1"/>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A36" s="4" t="s">
-        <v>246</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>242</v>
-      </c>
-      <c r="C36" s="3"/>
-      <c r="D36" s="28"/>
-      <c r="E36" s="3"/>
+      <c r="C21" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="B22" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="B23" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="B24" t="s">
+        <v>123</v>
+      </c>
+      <c r="C24" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="C25" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="C26" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="B27" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="B28" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="B29" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A31" t="s">
+        <v>158</v>
+      </c>
+      <c r="B31" t="s">
+        <v>157</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="A8:E8"/>
-    <mergeCell ref="A16:E16"/>
-    <mergeCell ref="A28:E28"/>
-    <mergeCell ref="A32:A34"/>
-    <mergeCell ref="A1:E1"/>
-  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{418951F5-1FC2-46F1-9193-D7D542FC91E1}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -3350,12 +3839,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FC11B7B-0B3B-4F0E-ABC7-D53C4FF33C9A}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
